--- a/medicine/Mort/Exécutions_en_France/Exécutions_en_France.xlsx
+++ b/medicine/Mort/Exécutions_en_France/Exécutions_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ex%C3%A9cutions_en_France</t>
+          <t>Exécutions_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Article énumérant les dernières personnes condamnées à mort et exécutées en France métropolitaine et en outre-mer. Cette liste n'est pas exhaustive[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Article énumérant les dernières personnes condamnées à mort et exécutées en France métropolitaine et en outre-mer. Cette liste n'est pas exhaustive,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ex%C3%A9cutions_en_France</t>
+          <t>Exécutions_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ex%C3%A9cutions_en_France</t>
+          <t>Exécutions_en_France</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,7 +551,9 @@
           <t>Femmes exécutées au XXe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ex%C3%A9cutions_en_France</t>
+          <t>Exécutions_en_France</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,11 +584,13 @@
           <t>Guillotine pendant la guerre d'Algérie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de la Guerre d'Algérie, le 17 mars 1956 sont publiées au J.O les lois 56-268 et 56-269 qui permettent aux tribunaux militaires français d’appliquer - sans instruction préalable - la peine de mort aux membres du FLN pris les armes à la main.
-Pour les bourreaux d'Alger, commencent alors les cadences infernales, avec les exécutions multiples qui se poursuivent jusqu'en 1958. Dans ses mémoires, le bourreau Fernand Meyssonnier rapporte « Dans l'histoire, c'est assez rare [...] En Algérie, entre 1956 et 1958, il y a eu seize exécutions doubles, quinze triples, huit quadruples et une quintuple. Oui, pendant le FLN c'était à la chaîne [...] Pour arriver à de telles hécatombes, il faut des époques politiques troubles comme la Terreur pendant la Révolution, l'Occupation où il y a eu neuf exécutés d'un coup le 1er  mai 1944, et... les "événements" d'Algérie »[5].
-Au total, entre 1956 et 1962 pour environ 1 500 condamnations prononcées, 222 Algériens ont été officiellement exécutés pendant la guerre d’Algérie. 142 l’ont été sous la IVe République : 45 pendant que François Mitterrand était garde des Sceaux, soit une exécution tous les 10 jours en moyenne[6]. La plus forte fréquence revient au Gouvernement Maurice Bourgès-Maunoury, qui a commis 29 exécutions en trois mois (soit une tous les trois jours). 80 exécutions ont eu lieu sous de Gaulle (soit une tous les 20 jours), bien qu’il ait amnistié 209 condamnés à mort en janvier 1959, commuant leur condamnation en peine de prison à vie[7]. Un seul Européen, Fernand Iveton, sera guillotiné pendant la guerre d'Algérie.
+Pour les bourreaux d'Alger, commencent alors les cadences infernales, avec les exécutions multiples qui se poursuivent jusqu'en 1958. Dans ses mémoires, le bourreau Fernand Meyssonnier rapporte « Dans l'histoire, c'est assez rare [...] En Algérie, entre 1956 et 1958, il y a eu seize exécutions doubles, quinze triples, huit quadruples et une quintuple. Oui, pendant le FLN c'était à la chaîne [...] Pour arriver à de telles hécatombes, il faut des époques politiques troubles comme la Terreur pendant la Révolution, l'Occupation où il y a eu neuf exécutés d'un coup le 1er  mai 1944, et... les "événements" d'Algérie ».
+Au total, entre 1956 et 1962 pour environ 1 500 condamnations prononcées, 222 Algériens ont été officiellement exécutés pendant la guerre d’Algérie. 142 l’ont été sous la IVe République : 45 pendant que François Mitterrand était garde des Sceaux, soit une exécution tous les 10 jours en moyenne. La plus forte fréquence revient au Gouvernement Maurice Bourgès-Maunoury, qui a commis 29 exécutions en trois mois (soit une tous les trois jours). 80 exécutions ont eu lieu sous de Gaulle (soit une tous les 20 jours), bien qu’il ait amnistié 209 condamnés à mort en janvier 1959, commuant leur condamnation en peine de prison à vie. Un seul Européen, Fernand Iveton, sera guillotiné pendant la guerre d'Algérie.
 </t>
         </is>
       </c>
